--- a/Bewertungsfunktion.xlsx
+++ b/Bewertungsfunktion.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoWoWi\jupyter_public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joern.wohlgezogen-wiemann@beumer.com\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A534A3B4-6743-4990-A45A-A10E94F1B4AF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{045BD18B-6244-4B9D-BB6A-5AB2F398ED84}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestRechnung" sheetId="1" r:id="rId1"/>
     <sheet name="Ableitung" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -148,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -812,37 +811,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>140</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -2543,10 +2542,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A615CD-6324-4988-B779-A7B26764D15F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
@@ -3558,11 +3557,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D76B79-09AC-4CB7-AD84-0FD21C4EE0A5}">
-  <dimension ref="A1:Z51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3695,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -3721,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -3747,7 +3746,7 @@
         <v>2</v>
       </c>
       <c r="L30">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -3773,7 +3772,7 @@
         <v>3</v>
       </c>
       <c r="L31">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -3799,10 +3798,10 @@
         <v>4</v>
       </c>
       <c r="L32">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ref="A33:F33" si="1">_xlfn.STDEV.P(A28:A32)</f>
         <v>178.77359984069236</v>
@@ -3831,26 +3830,26 @@
         <v>5</v>
       </c>
       <c r="L33">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K34">
         <v>6</v>
       </c>
       <c r="L34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K35">
         <v>7</v>
       </c>
       <c r="L35">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -3864,10 +3863,10 @@
         <v>8</v>
       </c>
       <c r="L36">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -3881,10 +3880,10 @@
         <v>9</v>
       </c>
       <c r="L37">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>50</v>
       </c>
@@ -3895,10 +3894,10 @@
         <v>10</v>
       </c>
       <c r="L38">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K39">
         <v>11</v>
       </c>
@@ -3906,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>4.4721359549995796</v>
       </c>
@@ -3933,7 +3932,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>11.401754250991379</v>
       </c>
@@ -3960,7 +3959,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>27.568097504180443</v>
       </c>
@@ -3987,7 +3986,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>53.944415837044708</v>
       </c>
@@ -4014,7 +4013,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>178.77359984069236</v>
       </c>
@@ -4041,7 +4040,7 @@
         <v>-160</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>228.99781658347749</v>
       </c>
@@ -4068,7 +4067,7 @@
         <v>-320</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -4095,7 +4094,7 @@
         <v>-640</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -4115,47 +4114,8 @@
         <f t="shared" si="5"/>
         <v>102.22222222222223</v>
       </c>
-      <c r="N47">
-        <v>4</v>
-      </c>
-      <c r="O47">
-        <v>5</v>
-      </c>
-      <c r="P47">
-        <v>6</v>
-      </c>
-      <c r="Q47">
-        <v>7</v>
-      </c>
-      <c r="R47">
-        <v>8</v>
-      </c>
-      <c r="S47">
-        <v>9</v>
-      </c>
-      <c r="T47">
-        <v>10</v>
-      </c>
-      <c r="U47">
-        <v>11</v>
-      </c>
-      <c r="V47">
-        <v>12</v>
-      </c>
-      <c r="W47">
-        <v>13</v>
-      </c>
-      <c r="X47">
-        <v>14</v>
-      </c>
-      <c r="Y47">
-        <v>15</v>
-      </c>
-      <c r="Z47">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -4175,60 +4135,53 @@
         <f t="shared" si="5"/>
         <v>104.44444444444444</v>
       </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <v>5</v>
+      </c>
+      <c r="M48">
+        <v>6</v>
+      </c>
       <c r="N48">
-        <f>-0.0626*N47*N47*N47*N47+1.7793*N47*N47*N47-15.559*N47*N47+27.094*N47+163.24</f>
-        <v>120.52160000000003</v>
+        <v>7</v>
       </c>
       <c r="O48">
-        <f t="shared" ref="O48:Z48" si="6">-0.0626*O47*O47*O47*O47+1.7793*O47*O47*O47-15.559*O47*O47+27.094*O47+163.24</f>
-        <v>93.022500000000008</v>
+        <v>8</v>
       </c>
       <c r="P48">
-        <f t="shared" si="6"/>
-        <v>68.879200000000026</v>
+        <v>9</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="6"/>
-        <v>50.504300000000171</v>
+        <v>10</v>
       </c>
       <c r="R48">
-        <f t="shared" si="6"/>
-        <v>38.808000000000163</v>
+        <v>11</v>
       </c>
       <c r="S48">
-        <f t="shared" si="6"/>
-        <v>33.198100000000068</v>
+        <v>12</v>
       </c>
       <c r="T48">
-        <f t="shared" si="6"/>
-        <v>31.580000000000098</v>
+        <v>13</v>
       </c>
       <c r="U48">
-        <f t="shared" si="6"/>
-        <v>30.356699999999933</v>
+        <v>14</v>
       </c>
       <c r="V48">
-        <f t="shared" si="6"/>
-        <v>24.428799999999796</v>
-      </c>
-      <c r="W48">
-        <f t="shared" si="6"/>
-        <v>7.1944999999996639</v>
-      </c>
-      <c r="X48">
-        <f t="shared" si="6"/>
-        <v>-29.450399999999263</v>
-      </c>
-      <c r="Y48">
-        <f t="shared" si="6"/>
-        <v>-95.112499999998875</v>
-      </c>
-      <c r="Z48">
-        <f t="shared" si="6"/>
-        <v>-200.90079999999955</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -4248,8 +4201,68 @@
         <f t="shared" si="5"/>
         <v>106.66666666666667</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f>-0.0611*H48*H48*H48*H48+1.7518*H48*H48*H48-15.582*H48*H48+25.627*H48+203.81</f>
+        <v>215.54570000000001</v>
+      </c>
+      <c r="I49">
+        <f>-0.0611*I48*I48*I48*I48+1.7518*I48*I48*I48-15.582*I48*I48+25.627*I48+203.81</f>
+        <v>205.77279999999999</v>
+      </c>
+      <c r="J49">
+        <f>-0.0611*J48*J48*J48*J48+1.7518*J48*J48*J48-15.582*J48*J48+25.627*J48+203.81</f>
+        <v>182.80250000000001</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ref="K49:V49" si="6">-0.0611*K48*K48*K48*K48+1.7518*K48*K48*K48-15.582*K48*K48+25.627*K48+203.81</f>
+        <v>153.4796</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="6"/>
+        <v>123.18250000000006</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="6"/>
+        <v>95.823199999999986</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="6"/>
+        <v>73.847299999999933</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="6"/>
+        <v>58.233999999999895</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="6"/>
+        <v>48.496099999999984</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="6"/>
+        <v>42.680000000000348</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="6"/>
+        <v>37.365699999999947</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="6"/>
+        <v>27.66679999999991</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="6"/>
+        <v>7.2304999999994379</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="6"/>
+        <v>-31.762400000000298</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="6"/>
+        <v>-98.59749999999957</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -4270,7 +4283,7 @@
         <v>108.88888888888889</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0</v>
       </c>
